--- a/src/main/webapp/file/employeeInfo.xlsx
+++ b/src/main/webapp/file/employeeInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3907" uniqueCount="47">
   <si>
     <t>微核科技人员信息</t>
   </si>
